--- a/biology/Médecine/Christian-François_Paullini/Christian-François_Paullini.xlsx
+++ b/biology/Médecine/Christian-François_Paullini/Christian-François_Paullini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Christian-Fran%C3%A7ois_Paullini</t>
+          <t>Christian-François_Paullini</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian-François Paullini (né le 25 février 1643 à Eisenach et mort dans cette même ville le 10 juin 1712) est un théologien, médecin et auteur polymathe allemand.
-Il est l'auteur de quelque 70 travaux qui témoignent d'une grande érudition, liée à une absence quasi totale de sens critique. C'est ainsi qu'il est qualifié de « mystificateur inconscient, mystifié lui-même par une inlassable crédulité » à propos de ses travaux sur les crapauds[1]. 
+Il est l'auteur de quelque 70 travaux qui témoignent d'une grande érudition, liée à une absence quasi totale de sens critique. C'est ainsi qu'il est qualifié de « mystificateur inconscient, mystifié lui-même par une inlassable crédulité » à propos de ses travaux sur les crapauds. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Christian-Fran%C3%A7ois_Paullini</t>
+          <t>Christian-François_Paullini</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cynographia curiosa seu canis descriptio. Nuremberg, Endter, 1685.
 Coenarum Helena, seu Angvilla : Juxta Methodum Et Leges Illustris Academiae Naturae Curiosorum descripta, Selectisq[ue] Observationibus &amp; Curiositatibus condita. Francfort-sur-le-Main, Wohlfart, 1689.
